--- a/Data/EC/NIT-8160071136.xlsx
+++ b/Data/EC/NIT-8160071136.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{749048A3-6AAE-4E90-AE8D-33B823DC13DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{95585DAE-C706-4B46-9828-0D96720EB181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AE641724-90D3-4089-B94A-61059BA0FBD1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7284EB03-BCB6-4248-9871-3F6BB7826692}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="117">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,289 +65,295 @@
     <t>CC</t>
   </si>
   <si>
+    <t>33334837</t>
+  </si>
+  <si>
+    <t>DALILA PUELLO PEDROZA</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>1128062212</t>
+  </si>
+  <si>
+    <t>WILLIAM CASTILLO BARRIOS</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
     <t>1143369779</t>
   </si>
   <si>
     <t>SHIRLY PAOLA RODRIGUEZ CARDENAS</t>
   </si>
   <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
     <t>1607</t>
   </si>
   <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
     <t>1050968902</t>
   </si>
   <si>
     <t>LIZA MARGARITA SALCEDO SCHOTBORGH</t>
   </si>
   <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>1128062212</t>
-  </si>
-  <si>
-    <t>WILLIAM CASTILLO BARRIOS</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
+    <t>1051448312</t>
+  </si>
+  <si>
+    <t>JOSE MANUEL MONTES PADILLA</t>
   </si>
   <si>
     <t>1143405108</t>
   </si>
   <si>
     <t>EDUARDO ANDRES VARGAS MENDOZA</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>33334837</t>
-  </si>
-  <si>
-    <t>DALILA PUELLO PEDROZA</t>
-  </si>
-  <si>
-    <t>2312</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -761,7 +767,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81084548-F660-2656-5CBB-7FC812CEA980}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{389A5DF6-BD63-2D71-4C30-F8139D4B9C1B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1112,8 +1118,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBC7A5B5-665A-4E8E-AA83-8FEE63300812}">
-  <dimension ref="B2:J142"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A1ADA8-1F6C-4484-9F94-FE726ADDFFE0}">
+  <dimension ref="B2:J152"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1137,7 +1143,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1182,7 +1188,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1214,12 +1220,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>3604630</v>
+        <v>3955750</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1230,14 +1236,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C13" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F13" s="5">
         <v>85</v>
@@ -1267,13 +1273,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1290,10 +1296,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>25774</v>
+        <v>37426</v>
       </c>
       <c r="G16" s="18">
-        <v>781242</v>
+        <v>1732970</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1304,19 +1310,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>25774</v>
+        <v>16959</v>
       </c>
       <c r="G17" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1327,19 +1333,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F18" s="18">
-        <v>25774</v>
+        <v>36341</v>
       </c>
       <c r="G18" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1350,19 +1356,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F19" s="18">
-        <v>25774</v>
+        <v>36341</v>
       </c>
       <c r="G19" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1373,19 +1379,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F20" s="18">
-        <v>25774</v>
+        <v>36341</v>
       </c>
       <c r="G20" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1396,19 +1402,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F21" s="18">
-        <v>27578</v>
+        <v>36341</v>
       </c>
       <c r="G21" s="18">
-        <v>828116</v>
+        <v>908526</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1419,19 +1425,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F22" s="18">
-        <v>25774</v>
+        <v>36341</v>
       </c>
       <c r="G22" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1442,19 +1448,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F23" s="18">
-        <v>25774</v>
+        <v>36341</v>
       </c>
       <c r="G23" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1465,19 +1471,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F24" s="18">
-        <v>27578</v>
+        <v>36341</v>
       </c>
       <c r="G24" s="18">
-        <v>828116</v>
+        <v>908526</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1488,19 +1494,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F25" s="18">
-        <v>25774</v>
+        <v>36341</v>
       </c>
       <c r="G25" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1511,19 +1517,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F26" s="18">
-        <v>27578</v>
+        <v>36341</v>
       </c>
       <c r="G26" s="18">
-        <v>828116</v>
+        <v>908526</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1534,19 +1540,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F27" s="18">
-        <v>25774</v>
+        <v>36341</v>
       </c>
       <c r="G27" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1557,19 +1563,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F28" s="18">
-        <v>27578</v>
+        <v>36341</v>
       </c>
       <c r="G28" s="18">
-        <v>828116</v>
+        <v>908526</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1580,19 +1586,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F29" s="18">
-        <v>27578</v>
+        <v>36341</v>
       </c>
       <c r="G29" s="18">
-        <v>828116</v>
+        <v>908526</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1603,19 +1609,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F30" s="18">
-        <v>25774</v>
+        <v>36341</v>
       </c>
       <c r="G30" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1626,19 +1632,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F31" s="18">
-        <v>27578</v>
+        <v>36341</v>
       </c>
       <c r="G31" s="18">
-        <v>828116</v>
+        <v>908526</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1649,19 +1655,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F32" s="18">
-        <v>25774</v>
+        <v>36341</v>
       </c>
       <c r="G32" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1672,19 +1678,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F33" s="18">
-        <v>27578</v>
+        <v>36341</v>
       </c>
       <c r="G33" s="18">
-        <v>828116</v>
+        <v>908526</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1695,19 +1701,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F34" s="18">
-        <v>25774</v>
+        <v>36341</v>
       </c>
       <c r="G34" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1718,19 +1724,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F35" s="18">
-        <v>25774</v>
+        <v>36341</v>
       </c>
       <c r="G35" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1741,19 +1747,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F36" s="18">
-        <v>27578</v>
+        <v>36341</v>
       </c>
       <c r="G36" s="18">
-        <v>828116</v>
+        <v>908526</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1764,16 +1770,16 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F37" s="18">
-        <v>25774</v>
+        <v>3125</v>
       </c>
       <c r="G37" s="18">
         <v>781242</v>
@@ -1787,19 +1793,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F38" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G38" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1810,19 +1816,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F39" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G39" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1833,16 +1839,16 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F40" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G40" s="18">
         <v>781242</v>
@@ -1856,19 +1862,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F41" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G41" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1879,16 +1885,16 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F42" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G42" s="18">
         <v>781242</v>
@@ -1902,16 +1908,16 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F43" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G43" s="18">
         <v>781242</v>
@@ -1925,19 +1931,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F44" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G44" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1948,16 +1954,16 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F45" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G45" s="18">
         <v>781242</v>
@@ -1971,19 +1977,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F46" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G46" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1994,19 +2000,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F47" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G47" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -2017,16 +2023,16 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F48" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G48" s="18">
         <v>781242</v>
@@ -2040,16 +2046,16 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F49" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G49" s="18">
         <v>781242</v>
@@ -2063,19 +2069,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F50" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G50" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -2086,16 +2092,16 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F51" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G51" s="18">
         <v>781242</v>
@@ -2109,19 +2115,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F52" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G52" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2132,19 +2138,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F53" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G53" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2155,16 +2161,16 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F54" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G54" s="18">
         <v>781242</v>
@@ -2178,19 +2184,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F55" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G55" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2201,16 +2207,16 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F56" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G56" s="18">
         <v>781242</v>
@@ -2224,16 +2230,16 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F57" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G57" s="18">
         <v>781242</v>
@@ -2247,16 +2253,16 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F58" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G58" s="18">
         <v>781242</v>
@@ -2270,16 +2276,16 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F59" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G59" s="18">
         <v>781242</v>
@@ -2293,13 +2299,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F60" s="18">
         <v>31249</v>
@@ -2316,13 +2322,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F61" s="18">
         <v>31249</v>
@@ -2339,13 +2345,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F62" s="18">
         <v>31249</v>
@@ -2362,13 +2368,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F63" s="18">
         <v>31249</v>
@@ -2385,13 +2391,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F64" s="18">
         <v>31249</v>
@@ -2408,13 +2414,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F65" s="18">
         <v>31249</v>
@@ -2431,13 +2437,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F66" s="18">
         <v>31249</v>
@@ -2454,13 +2460,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F67" s="18">
         <v>31249</v>
@@ -2477,13 +2483,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F68" s="18">
         <v>31249</v>
@@ -2500,13 +2506,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F69" s="18">
         <v>31249</v>
@@ -2523,13 +2529,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F70" s="18">
         <v>31249</v>
@@ -2546,13 +2552,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F71" s="18">
         <v>31249</v>
@@ -2569,13 +2575,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F72" s="18">
         <v>31249</v>
@@ -2592,13 +2598,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F73" s="18">
         <v>31249</v>
@@ -2615,13 +2621,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F74" s="18">
         <v>31249</v>
@@ -2638,13 +2644,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F75" s="18">
         <v>31249</v>
@@ -2661,13 +2667,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F76" s="18">
         <v>31249</v>
@@ -2684,13 +2690,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F77" s="18">
         <v>31249</v>
@@ -2707,13 +2713,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F78" s="18">
         <v>31249</v>
@@ -2730,13 +2736,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F79" s="18">
         <v>31249</v>
@@ -2753,13 +2759,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F80" s="18">
         <v>31249</v>
@@ -2776,13 +2782,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F81" s="18">
         <v>31249</v>
@@ -2799,13 +2805,13 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F82" s="18">
         <v>31249</v>
@@ -2822,13 +2828,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F83" s="18">
         <v>31249</v>
@@ -2845,13 +2851,13 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F84" s="18">
         <v>31249</v>
@@ -2868,13 +2874,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F85" s="18">
         <v>31249</v>
@@ -2891,13 +2897,13 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F86" s="18">
         <v>31249</v>
@@ -2914,13 +2920,13 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F87" s="18">
         <v>31249</v>
@@ -2937,13 +2943,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F88" s="18">
         <v>31249</v>
@@ -2960,13 +2966,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F89" s="18">
         <v>31249</v>
@@ -2983,13 +2989,13 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F90" s="18">
         <v>31249</v>
@@ -3006,13 +3012,13 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F91" s="18">
         <v>31249</v>
@@ -3029,16 +3035,16 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F92" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G92" s="18">
         <v>781242</v>
@@ -3052,16 +3058,16 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F93" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G93" s="18">
         <v>781242</v>
@@ -3075,16 +3081,16 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F94" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G94" s="18">
         <v>781242</v>
@@ -3098,16 +3104,16 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F95" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G95" s="18">
         <v>781242</v>
@@ -3121,16 +3127,16 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F96" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G96" s="18">
         <v>781242</v>
@@ -3144,16 +3150,16 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F97" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G97" s="18">
         <v>781242</v>
@@ -3167,16 +3173,16 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F98" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G98" s="18">
         <v>781242</v>
@@ -3190,19 +3196,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F99" s="18">
-        <v>36341</v>
+        <v>25774</v>
       </c>
       <c r="G99" s="18">
-        <v>908526</v>
+        <v>781242</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3213,16 +3219,16 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F100" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G100" s="18">
         <v>781242</v>
@@ -3236,19 +3242,19 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F101" s="18">
-        <v>36341</v>
+        <v>25774</v>
       </c>
       <c r="G101" s="18">
-        <v>908526</v>
+        <v>781242</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3259,16 +3265,16 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F102" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G102" s="18">
         <v>781242</v>
@@ -3282,19 +3288,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F103" s="18">
-        <v>36341</v>
+        <v>25774</v>
       </c>
       <c r="G103" s="18">
-        <v>908526</v>
+        <v>781242</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3305,16 +3311,16 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F104" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G104" s="18">
         <v>781242</v>
@@ -3328,19 +3334,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F105" s="18">
-        <v>36341</v>
+        <v>25774</v>
       </c>
       <c r="G105" s="18">
-        <v>908526</v>
+        <v>781242</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3351,16 +3357,16 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F106" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G106" s="18">
         <v>781242</v>
@@ -3374,19 +3380,19 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F107" s="18">
-        <v>36341</v>
+        <v>25774</v>
       </c>
       <c r="G107" s="18">
-        <v>908526</v>
+        <v>781242</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3397,19 +3403,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F108" s="18">
-        <v>36341</v>
+        <v>25774</v>
       </c>
       <c r="G108" s="18">
-        <v>908526</v>
+        <v>781242</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3420,16 +3426,16 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="F109" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G109" s="18">
         <v>781242</v>
@@ -3443,19 +3449,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F110" s="18">
-        <v>36341</v>
+        <v>25774</v>
       </c>
       <c r="G110" s="18">
-        <v>908526</v>
+        <v>781242</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3466,16 +3472,16 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="F111" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G111" s="18">
         <v>781242</v>
@@ -3489,16 +3495,16 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="F112" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G112" s="18">
         <v>781242</v>
@@ -3512,19 +3518,19 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="F113" s="18">
-        <v>36341</v>
+        <v>25774</v>
       </c>
       <c r="G113" s="18">
-        <v>908526</v>
+        <v>781242</v>
       </c>
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
@@ -3535,19 +3541,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="F114" s="18">
-        <v>36341</v>
+        <v>25774</v>
       </c>
       <c r="G114" s="18">
-        <v>908526</v>
+        <v>781242</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3558,16 +3564,16 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="F115" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G115" s="18">
         <v>781242</v>
@@ -3581,19 +3587,19 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="F116" s="18">
-        <v>36341</v>
+        <v>25774</v>
       </c>
       <c r="G116" s="18">
-        <v>908526</v>
+        <v>781242</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
@@ -3604,16 +3610,16 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="F117" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G117" s="18">
         <v>781242</v>
@@ -3627,19 +3633,19 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F118" s="18">
-        <v>36341</v>
+        <v>27578</v>
       </c>
       <c r="G118" s="18">
-        <v>908526</v>
+        <v>828116</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -3650,19 +3656,19 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="F119" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G119" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
@@ -3673,19 +3679,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F120" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G120" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3696,19 +3702,19 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F121" s="18">
-        <v>36341</v>
+        <v>27578</v>
       </c>
       <c r="G121" s="18">
-        <v>908526</v>
+        <v>828116</v>
       </c>
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
@@ -3719,19 +3725,19 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="F122" s="18">
-        <v>36341</v>
+        <v>27578</v>
       </c>
       <c r="G122" s="18">
-        <v>908526</v>
+        <v>828116</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -3742,19 +3748,19 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F123" s="18">
-        <v>2667</v>
+        <v>27578</v>
       </c>
       <c r="G123" s="18">
-        <v>1000000</v>
+        <v>828116</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
@@ -3765,19 +3771,19 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F124" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G124" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
@@ -3788,19 +3794,19 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F125" s="18">
-        <v>36341</v>
+        <v>27578</v>
       </c>
       <c r="G125" s="18">
-        <v>908526</v>
+        <v>828116</v>
       </c>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
@@ -3811,19 +3817,19 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="F126" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G126" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
@@ -3834,19 +3840,19 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="F127" s="18">
-        <v>36341</v>
+        <v>27578</v>
       </c>
       <c r="G127" s="18">
-        <v>908526</v>
+        <v>828116</v>
       </c>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
@@ -3857,19 +3863,19 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F128" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G128" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
@@ -3880,19 +3886,19 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F129" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G129" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H129" s="19"/>
       <c r="I129" s="19"/>
@@ -3903,19 +3909,19 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F130" s="18">
-        <v>36341</v>
+        <v>27578</v>
       </c>
       <c r="G130" s="18">
-        <v>908526</v>
+        <v>828116</v>
       </c>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
@@ -3926,19 +3932,19 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F131" s="18">
-        <v>3125</v>
+        <v>27578</v>
       </c>
       <c r="G131" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
@@ -3949,19 +3955,19 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F132" s="18">
-        <v>36341</v>
+        <v>27578</v>
       </c>
       <c r="G132" s="18">
-        <v>908526</v>
+        <v>828116</v>
       </c>
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
@@ -3972,19 +3978,19 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F133" s="18">
-        <v>36341</v>
+        <v>27578</v>
       </c>
       <c r="G133" s="18">
-        <v>908526</v>
+        <v>828116</v>
       </c>
       <c r="H133" s="19"/>
       <c r="I133" s="19"/>
@@ -3995,19 +4001,19 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F134" s="18">
-        <v>36341</v>
+        <v>27578</v>
       </c>
       <c r="G134" s="18">
-        <v>908526</v>
+        <v>828116</v>
       </c>
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
@@ -4018,75 +4024,305 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F135" s="18">
-        <v>16959</v>
+        <v>27578</v>
       </c>
       <c r="G135" s="18">
-        <v>908526</v>
+        <v>828116</v>
       </c>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
       <c r="J135" s="20"/>
     </row>
     <row r="136" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B136" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C136" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="D136" s="23" t="s">
+      <c r="B136" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C136" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="E136" s="22" t="s">
+      <c r="D136" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="F136" s="24">
-        <v>37426</v>
-      </c>
-      <c r="G136" s="24">
-        <v>1732970</v>
-      </c>
-      <c r="H136" s="25"/>
-      <c r="I136" s="25"/>
-      <c r="J136" s="26"/>
+      <c r="E136" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F136" s="18">
+        <v>35112</v>
+      </c>
+      <c r="G136" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H136" s="19"/>
+      <c r="I136" s="19"/>
+      <c r="J136" s="20"/>
+    </row>
+    <row r="137" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B137" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C137" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D137" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E137" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F137" s="18">
+        <v>35112</v>
+      </c>
+      <c r="G137" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H137" s="19"/>
+      <c r="I137" s="19"/>
+      <c r="J137" s="20"/>
+    </row>
+    <row r="138" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B138" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C138" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D138" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E138" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F138" s="18">
+        <v>35112</v>
+      </c>
+      <c r="G138" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H138" s="19"/>
+      <c r="I138" s="19"/>
+      <c r="J138" s="20"/>
+    </row>
+    <row r="139" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B139" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C139" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D139" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E139" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F139" s="18">
+        <v>35112</v>
+      </c>
+      <c r="G139" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H139" s="19"/>
+      <c r="I139" s="19"/>
+      <c r="J139" s="20"/>
+    </row>
+    <row r="140" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B140" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C140" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D140" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E140" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F140" s="18">
+        <v>35112</v>
+      </c>
+      <c r="G140" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H140" s="19"/>
+      <c r="I140" s="19"/>
+      <c r="J140" s="20"/>
     </row>
     <row r="141" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B141" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="C141" s="32"/>
-      <c r="H141" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="I141" s="1"/>
-      <c r="J141" s="1"/>
+      <c r="B141" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C141" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D141" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E141" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F141" s="18">
+        <v>35112</v>
+      </c>
+      <c r="G141" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H141" s="19"/>
+      <c r="I141" s="19"/>
+      <c r="J141" s="20"/>
     </row>
     <row r="142" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B142" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="C142" s="32"/>
-      <c r="H142" s="1" t="s">
+      <c r="B142" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C142" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D142" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E142" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F142" s="18">
+        <v>35112</v>
+      </c>
+      <c r="G142" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H142" s="19"/>
+      <c r="I142" s="19"/>
+      <c r="J142" s="20"/>
+    </row>
+    <row r="143" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B143" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D143" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E143" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F143" s="18">
+        <v>35112</v>
+      </c>
+      <c r="G143" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H143" s="19"/>
+      <c r="I143" s="19"/>
+      <c r="J143" s="20"/>
+    </row>
+    <row r="144" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B144" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C144" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D144" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E144" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F144" s="18">
+        <v>35112</v>
+      </c>
+      <c r="G144" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H144" s="19"/>
+      <c r="I144" s="19"/>
+      <c r="J144" s="20"/>
+    </row>
+    <row r="145" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B145" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C145" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D145" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E145" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F145" s="18">
+        <v>35112</v>
+      </c>
+      <c r="G145" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H145" s="19"/>
+      <c r="I145" s="19"/>
+      <c r="J145" s="20"/>
+    </row>
+    <row r="146" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B146" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C146" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D146" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="E146" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F146" s="24">
+        <v>2667</v>
+      </c>
+      <c r="G146" s="24">
+        <v>1000000</v>
+      </c>
+      <c r="H146" s="25"/>
+      <c r="I146" s="25"/>
+      <c r="J146" s="26"/>
+    </row>
+    <row r="151" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B151" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="C151" s="32"/>
+      <c r="H151" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I151" s="1"/>
+      <c r="J151" s="1"/>
+    </row>
+    <row r="152" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B152" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="I142" s="1"/>
-      <c r="J142" s="1"/>
+      <c r="C152" s="32"/>
+      <c r="H152" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I152" s="1"/>
+      <c r="J152" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B142:C142"/>
-    <mergeCell ref="B141:C141"/>
-    <mergeCell ref="H142:J142"/>
-    <mergeCell ref="H141:J141"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="H152:J152"/>
+    <mergeCell ref="H151:J151"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
